--- a/data/134/DEUSTATIS/National accounts - Use of the gross domestic product years.xlsx
+++ b/data/134/DEUSTATIS/National accounts - Use of the gross domestic product years.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="72">
   <si>
     <t>National accounts - Use of the gross domestic product
 (nominal/price-adjusted): Germany, years</t>
@@ -120,6 +120,9 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>At current prices (bn EUR)</t>
   </si>
   <si>
@@ -225,7 +228,7 @@
     <t>resources.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:37:51</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:37:53</t>
   </si>
 </sst>
 </file>
@@ -669,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -849,6 +852,10 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -977,6 +984,10 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -986,6 +997,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1159,6 +1174,7 @@
     <col min="30" max="30" width="9.03125" customWidth="true"/>
     <col min="31" max="31" width="9.03125" customWidth="true"/>
     <col min="32" max="32" width="9.03125" customWidth="true"/>
+    <col min="33" max="33" width="9.03125" customWidth="true"/>
     <col min="1" max="1" width="44.23828125" style="7" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1178,114 +1194,117 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="85">
+      <c r="A4" t="s" s="87">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="86">
+      <c r="B4" t="s" s="88">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="87">
+      <c r="C4" t="s" s="89">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="88">
+      <c r="D4" t="s" s="90">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="89">
+      <c r="E4" t="s" s="91">
         <v>7</v>
       </c>
-      <c r="F4" t="s" s="90">
+      <c r="F4" t="s" s="92">
         <v>8</v>
       </c>
-      <c r="G4" t="s" s="91">
+      <c r="G4" t="s" s="93">
         <v>9</v>
       </c>
-      <c r="H4" t="s" s="92">
+      <c r="H4" t="s" s="94">
         <v>10</v>
       </c>
-      <c r="I4" t="s" s="93">
+      <c r="I4" t="s" s="95">
         <v>11</v>
       </c>
-      <c r="J4" t="s" s="94">
+      <c r="J4" t="s" s="96">
         <v>12</v>
       </c>
-      <c r="K4" t="s" s="95">
+      <c r="K4" t="s" s="97">
         <v>13</v>
       </c>
-      <c r="L4" t="s" s="96">
+      <c r="L4" t="s" s="98">
         <v>14</v>
       </c>
-      <c r="M4" t="s" s="97">
+      <c r="M4" t="s" s="99">
         <v>15</v>
       </c>
-      <c r="N4" t="s" s="98">
+      <c r="N4" t="s" s="100">
         <v>16</v>
       </c>
-      <c r="O4" t="s" s="99">
+      <c r="O4" t="s" s="101">
         <v>17</v>
       </c>
-      <c r="P4" t="s" s="100">
+      <c r="P4" t="s" s="102">
         <v>18</v>
       </c>
-      <c r="Q4" t="s" s="101">
+      <c r="Q4" t="s" s="103">
         <v>19</v>
       </c>
-      <c r="R4" t="s" s="102">
+      <c r="R4" t="s" s="104">
         <v>20</v>
       </c>
-      <c r="S4" t="s" s="103">
+      <c r="S4" t="s" s="105">
         <v>21</v>
       </c>
-      <c r="T4" t="s" s="104">
+      <c r="T4" t="s" s="106">
         <v>22</v>
       </c>
-      <c r="U4" t="s" s="105">
+      <c r="U4" t="s" s="107">
         <v>23</v>
       </c>
-      <c r="V4" t="s" s="106">
+      <c r="V4" t="s" s="108">
         <v>24</v>
       </c>
-      <c r="W4" t="s" s="107">
+      <c r="W4" t="s" s="109">
         <v>25</v>
       </c>
-      <c r="X4" t="s" s="108">
+      <c r="X4" t="s" s="110">
         <v>26</v>
       </c>
-      <c r="Y4" t="s" s="109">
+      <c r="Y4" t="s" s="111">
         <v>27</v>
       </c>
-      <c r="Z4" t="s" s="110">
+      <c r="Z4" t="s" s="112">
         <v>28</v>
       </c>
-      <c r="AA4" t="s" s="111">
+      <c r="AA4" t="s" s="113">
         <v>29</v>
       </c>
-      <c r="AB4" t="s" s="112">
+      <c r="AB4" t="s" s="114">
         <v>30</v>
       </c>
-      <c r="AC4" t="s" s="113">
+      <c r="AC4" t="s" s="115">
         <v>31</v>
       </c>
-      <c r="AD4" t="s" s="114">
+      <c r="AD4" t="s" s="116">
         <v>32</v>
       </c>
-      <c r="AE4" t="s" s="115">
+      <c r="AE4" t="s" s="117">
         <v>33</v>
       </c>
-      <c r="AF4" t="s" s="116">
+      <c r="AF4" t="s" s="118">
         <v>34</v>
+      </c>
+      <c r="AG4" t="s" s="119">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="33.75" customHeight="true">
       <c r="A5" t="s" s="14">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n" s="10">
         <v>1184.834</v>
@@ -1377,13 +1396,16 @@
       <c r="AF6" t="n" s="10">
         <v>2462.553</v>
       </c>
+      <c r="AG6" t="n" s="10">
+        <v>2564.327</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="B7" t="s" s="13">
-        <v>37</v>
       </c>
       <c r="C7" t="n" s="10">
         <v>1055.96</v>
@@ -1475,13 +1497,16 @@
       <c r="AF7" t="n" s="10">
         <v>2180.135</v>
       </c>
+      <c r="AG7" t="n" s="10">
+        <v>2279.27</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n" s="10">
         <v>888.655</v>
@@ -1573,13 +1598,16 @@
       <c r="AF8" t="n" s="10">
         <v>1707.978</v>
       </c>
+      <c r="AG8" t="n" s="10">
+        <v>1762.986</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n" s="10">
         <v>867.004</v>
@@ -1671,13 +1699,16 @@
       <c r="AF9" t="n" s="10">
         <v>1656.162</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>1709.79</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n" s="10">
         <v>21.651</v>
@@ -1769,13 +1800,16 @@
       <c r="AF10" t="n" s="10">
         <v>51.816</v>
       </c>
+      <c r="AG10" t="n" s="10">
+        <v>53.196</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n" s="10">
         <v>296.179</v>
@@ -1867,13 +1901,16 @@
       <c r="AF11" t="n" s="10">
         <v>754.575</v>
       </c>
+      <c r="AG11" t="n" s="10">
+        <v>801.341</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n" s="10">
         <v>167.305</v>
@@ -1965,13 +2002,16 @@
       <c r="AF12" t="n" s="10">
         <v>472.157</v>
       </c>
+      <c r="AG12" t="n" s="10">
+        <v>516.284</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="n" s="10">
         <v>128.874</v>
@@ -2063,13 +2103,16 @@
       <c r="AF13" t="n" s="10">
         <v>282.418</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>285.057</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n" s="10">
         <v>408.698</v>
@@ -2161,13 +2204,16 @@
       <c r="AF14" t="n" s="10">
         <v>712.206</v>
       </c>
+      <c r="AG14" t="n" s="10">
+        <v>808.754</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n" s="10">
         <v>394.721</v>
@@ -2259,13 +2305,16 @@
       <c r="AF15" t="n" s="10">
         <v>735.869</v>
       </c>
+      <c r="AG15" t="n" s="10">
+        <v>783.896</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="n" s="10">
         <v>157.554</v>
@@ -2357,13 +2406,16 @@
       <c r="AF16" t="n" s="10">
         <v>216.903</v>
       </c>
+      <c r="AG16" t="n" s="10">
+        <v>228.165</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n" s="10">
         <v>192.846</v>
@@ -2455,13 +2507,16 @@
       <c r="AF17" t="n" s="10">
         <v>380.064</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>414.26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n" s="10">
         <v>44.321</v>
@@ -2553,13 +2608,16 @@
       <c r="AF18" t="n" s="10">
         <v>138.902</v>
       </c>
+      <c r="AG18" t="n" s="10">
+        <v>141.471</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n" s="10">
         <v>13.977</v>
@@ -2651,13 +2709,16 @@
       <c r="AF19" t="n" s="10">
         <v>-23.663</v>
       </c>
+      <c r="AG19" t="n" s="10">
+        <v>24.858</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n" s="10">
         <v>1593.532</v>
@@ -2749,13 +2810,16 @@
       <c r="AF20" t="n" s="10">
         <v>3174.759</v>
       </c>
+      <c r="AG20" t="n" s="10">
+        <v>3373.081</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="n" s="10">
         <v>-7.732</v>
@@ -2847,13 +2911,16 @@
       <c r="AF21" t="n" s="10">
         <v>192.801</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>197.539</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="n" s="10">
         <v>375.278</v>
@@ -2945,13 +3012,16 @@
       <c r="AF22" t="n" s="10">
         <v>1462.09</v>
       </c>
+      <c r="AG22" t="n" s="10">
+        <v>1694.583</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="n" s="10">
         <v>383.01</v>
@@ -3043,13 +3113,16 @@
       <c r="AF23" t="n" s="10">
         <v>1269.289</v>
       </c>
+      <c r="AG23" t="n" s="10">
+        <v>1497.044</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="n" s="10">
         <v>1585.8</v>
@@ -3141,18 +3214,21 @@
       <c r="AF24" t="n" s="10">
         <v>3367.56</v>
       </c>
+      <c r="AG24" t="n" s="10">
+        <v>3570.62</v>
+      </c>
     </row>
     <row r="25" ht="33.75" customHeight="true">
       <c r="A25" t="s" s="14">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="n" s="10">
         <v>75.03</v>
@@ -3244,13 +3320,16 @@
       <c r="AF26" t="n" s="10">
         <v>104.36</v>
       </c>
+      <c r="AG26" t="n" s="10">
+        <v>105.46</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="B27" t="s" s="13">
-        <v>37</v>
       </c>
       <c r="C27" t="n" s="10">
         <v>74.86</v>
@@ -3342,13 +3421,16 @@
       <c r="AF27" t="n" s="10">
         <v>102.31</v>
       </c>
+      <c r="AG27" t="n" s="10">
+        <v>103.71</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="n" s="10">
         <v>78.53</v>
@@ -3440,13 +3522,16 @@
       <c r="AF28" t="n" s="10">
         <v>100.76</v>
       </c>
+      <c r="AG28" t="n" s="10">
+        <v>100.9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="n" s="10">
         <v>78.86</v>
@@ -3538,13 +3623,16 @@
       <c r="AF29" t="n" s="10">
         <v>100.71</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>100.73</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" t="n" s="10">
         <v>67.04</v>
@@ -3636,13 +3724,16 @@
       <c r="AF30" t="n" s="10">
         <v>102.58</v>
       </c>
+      <c r="AG30" t="n" s="10">
+        <v>106.87</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" t="n" s="10">
         <v>65.69</v>
@@ -3734,13 +3825,16 @@
       <c r="AF31" t="n" s="10">
         <v>113.86</v>
       </c>
+      <c r="AG31" t="n" s="10">
+        <v>117.4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="n" s="10">
         <v>59.43</v>
@@ -3832,13 +3926,16 @@
       <c r="AF32" t="n" s="10">
         <v>108.65</v>
       </c>
+      <c r="AG32" t="n" s="10">
+        <v>114.94</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="n" s="10">
         <v>76.31</v>
@@ -3930,13 +4027,16 @@
       <c r="AF33" t="n" s="10">
         <v>123.48</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="n" s="10">
         <v>93.02</v>
@@ -4028,13 +4128,16 @@
       <c r="AF34" t="n" s="10">
         <v>108.39</v>
       </c>
+      <c r="AG34" t="n" s="10">
+        <v>115.05</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="n" s="10">
         <v>80.79</v>
@@ -4126,13 +4229,16 @@
       <c r="AF35" t="n" s="10">
         <v>109.67</v>
       </c>
+      <c r="AG35" t="n" s="10">
+        <v>111.27</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="n" s="10">
         <v>70.53</v>
@@ -4224,13 +4330,16 @@
       <c r="AF36" t="n" s="10">
         <v>100.46</v>
       </c>
+      <c r="AG36" t="n" s="10">
+        <v>103.86</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" t="n" s="10">
         <v>100.0</v>
@@ -4322,13 +4431,16 @@
       <c r="AF37" t="n" s="10">
         <v>111.43</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>112.16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="n" s="10">
         <v>53.89</v>
@@ -4420,111 +4532,117 @@
       <c r="AF38" t="n" s="10">
         <v>121.07</v>
       </c>
+      <c r="AG38" t="n" s="10">
+        <v>121.89</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF39" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG39" t="s" s="10">
+        <v>58</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" t="n" s="10">
         <v>78.91</v>
@@ -4616,111 +4734,117 @@
       <c r="AF40" t="n" s="10">
         <v>105.19</v>
       </c>
+      <c r="AG40" t="n" s="10">
+        <v>107.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF41" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG41" t="s" s="10">
+        <v>58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" t="n" s="10">
         <v>29.78</v>
@@ -4812,13 +4936,16 @@
       <c r="AF42" t="n" s="10">
         <v>100.81</v>
       </c>
+      <c r="AG42" t="n" s="10">
+        <v>110.82</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" t="n" s="10">
         <v>33.84</v>
@@ -4910,13 +5037,16 @@
       <c r="AF43" t="n" s="10">
         <v>107.41</v>
       </c>
+      <c r="AG43" t="n" s="10">
+        <v>117.35</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" t="n" s="10">
         <v>73.32</v>
@@ -5008,18 +5138,21 @@
       <c r="AF44" t="n" s="10">
         <v>102.33</v>
       </c>
+      <c r="AG44" t="n" s="10">
+        <v>105.29</v>
+      </c>
     </row>
     <row r="45" ht="33.75" customHeight="true">
       <c r="A45" t="s" s="14">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" t="n" s="10">
         <v>1649.817</v>
@@ -5111,13 +5244,16 @@
       <c r="AF46" t="n" s="10">
         <v>2294.748</v>
       </c>
+      <c r="AG46" t="n" s="10">
+        <v>2318.936</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="B47" t="s" s="13">
-        <v>37</v>
       </c>
       <c r="C47" t="n" s="10">
         <v>1487.013</v>
@@ -5209,13 +5345,16 @@
       <c r="AF47" t="n" s="10">
         <v>2032.278</v>
       </c>
+      <c r="AG47" t="n" s="10">
+        <v>2060.087</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" t="n" s="10">
         <v>1258.812</v>
@@ -5307,13 +5446,16 @@
       <c r="AF48" t="n" s="10">
         <v>1615.152</v>
       </c>
+      <c r="AG48" t="n" s="10">
+        <v>1617.396</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" t="n" s="10">
         <v>1229.756</v>
@@ -5405,13 +5547,16 @@
       <c r="AF49" t="n" s="10">
         <v>1570.489</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>1570.801</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" t="n" s="10">
         <v>29.197</v>
@@ -5503,13 +5648,16 @@
       <c r="AF50" t="n" s="10">
         <v>44.676</v>
       </c>
+      <c r="AG50" t="n" s="10">
+        <v>46.544</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" t="n" s="10">
         <v>391.452</v>
@@ -5601,13 +5749,16 @@
       <c r="AF51" t="n" s="10">
         <v>678.501</v>
       </c>
+      <c r="AG51" t="n" s="10">
+        <v>699.596</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="n" s="10">
         <v>227.868</v>
@@ -5699,13 +5850,16 @@
       <c r="AF52" t="n" s="10">
         <v>416.589</v>
       </c>
+      <c r="AG52" t="n" s="10">
+        <v>440.706</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="n" s="10">
         <v>162.147</v>
@@ -5797,13 +5951,16 @@
       <c r="AF53" t="n" s="10">
         <v>262.376</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>258.807</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="n" s="10">
         <v>555.755</v>
@@ -5895,13 +6052,16 @@
       <c r="AF54" t="n" s="10">
         <v>647.584</v>
       </c>
+      <c r="AG54" t="n" s="10">
+        <v>687.374</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="n" s="10">
         <v>489.455</v>
@@ -5993,13 +6153,16 @@
       <c r="AF55" t="n" s="10">
         <v>664.42</v>
       </c>
+      <c r="AG55" t="n" s="10">
+        <v>674.114</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="n" s="10">
         <v>145.957</v>
@@ -6091,13 +6254,16 @@
       <c r="AF56" t="n" s="10">
         <v>207.895</v>
       </c>
+      <c r="AG56" t="n" s="10">
+        <v>214.931</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="n" s="10">
         <v>291.243</v>
@@ -6189,13 +6355,16 @@
       <c r="AF57" t="n" s="10">
         <v>324.532</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>326.658</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C58" t="n" s="10">
         <v>58.013</v>
@@ -6287,111 +6456,117 @@
       <c r="AF58" t="n" s="10">
         <v>130.332</v>
       </c>
+      <c r="AG58" t="n" s="10">
+        <v>131.215</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF59" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG59" t="s" s="10">
+        <v>58</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C60" t="n" s="10">
         <v>2206.587</v>
@@ -6483,111 +6658,117 @@
       <c r="AF60" t="n" s="10">
         <v>2941.464</v>
       </c>
+      <c r="AG60" t="n" s="10">
+        <v>3006.059</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF61" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG61" t="s" s="10">
+        <v>58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" t="n" s="10">
         <v>422.848</v>
@@ -6679,13 +6860,16 @@
       <c r="AF62" t="n" s="10">
         <v>1431.407</v>
       </c>
+      <c r="AG62" t="n" s="10">
+        <v>1573.54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63" t="n" s="10">
         <v>402.716</v>
@@ -6777,13 +6961,16 @@
       <c r="AF63" t="n" s="10">
         <v>1278.243</v>
       </c>
+      <c r="AG63" t="n" s="10">
+        <v>1396.535</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C64" t="n" s="10">
         <v>2218.795</v>
@@ -6875,21 +7062,24 @@
       <c r="AF64" t="n" s="10">
         <v>3096.69</v>
       </c>
+      <c r="AG64" t="n" s="10">
+        <v>3186.265</v>
+      </c>
     </row>
     <row r="65" ht="33.75" customHeight="true">
       <c r="A65" t="s" s="14">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D66" t="n" s="10">
         <v>1227.46</v>
@@ -6978,16 +7168,19 @@
       <c r="AF66" t="n" s="10">
         <v>2427.356</v>
       </c>
+      <c r="AG66" t="n" s="10">
+        <v>2488.536</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="B67" t="s" s="13">
-        <v>37</v>
-      </c>
       <c r="C67" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D67" t="n" s="10">
         <v>1093.269</v>
@@ -7076,16 +7269,19 @@
       <c r="AF67" t="n" s="10">
         <v>2149.431</v>
       </c>
+      <c r="AG67" t="n" s="10">
+        <v>2209.959</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D68" t="n" s="10">
         <v>914.698</v>
@@ -7174,16 +7370,19 @@
       <c r="AF68" t="n" s="10">
         <v>1697.178</v>
       </c>
+      <c r="AG68" t="n" s="10">
+        <v>1710.474</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D69" t="n" s="10">
         <v>891.113</v>
@@ -7272,16 +7471,19 @@
       <c r="AF69" t="n" s="10">
         <v>1648.964</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>1656.491</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D70" t="n" s="10">
         <v>23.585</v>
@@ -7370,16 +7572,19 @@
       <c r="AF70" t="n" s="10">
         <v>48.214</v>
       </c>
+      <c r="AG70" t="n" s="10">
+        <v>53.983</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D71" t="n" s="10">
         <v>312.762</v>
@@ -7468,16 +7673,19 @@
       <c r="AF71" t="n" s="10">
         <v>730.178</v>
       </c>
+      <c r="AG71" t="n" s="10">
+        <v>778.062</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D72" t="n" s="10">
         <v>178.571</v>
@@ -7566,16 +7774,19 @@
       <c r="AF72" t="n" s="10">
         <v>452.253</v>
       </c>
+      <c r="AG72" t="n" s="10">
+        <v>499.485</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D73" t="n" s="10">
         <v>134.191</v>
@@ -7664,16 +7875,19 @@
       <c r="AF73" t="n" s="10">
         <v>277.925</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>278.577</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D74" t="n" s="10">
         <v>409.519</v>
@@ -7762,16 +7976,19 @@
       <c r="AF74" t="n" s="10">
         <v>720.099</v>
       </c>
+      <c r="AG74" t="n" s="10">
+        <v>755.929</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D75" t="n" s="10">
         <v>412.399</v>
@@ -7860,16 +8077,19 @@
       <c r="AF75" t="n" s="10">
         <v>725.699</v>
       </c>
+      <c r="AG75" t="n" s="10">
+        <v>746.624</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D76" t="n" s="10">
         <v>152.526</v>
@@ -7958,16 +8178,19 @@
       <c r="AF76" t="n" s="10">
         <v>214.118</v>
       </c>
+      <c r="AG76" t="n" s="10">
+        <v>224.256</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D77" t="n" s="10">
         <v>212.794</v>
@@ -8056,16 +8279,19 @@
       <c r="AF77" t="n" s="10">
         <v>373.163</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>382.534</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D78" t="n" s="10">
         <v>47.079</v>
@@ -8154,16 +8380,19 @@
       <c r="AF78" t="n" s="10">
         <v>138.418</v>
       </c>
+      <c r="AG78" t="n" s="10">
+        <v>139.834</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D79" t="n" s="10">
         <v>-2.88</v>
@@ -8252,16 +8481,19 @@
       <c r="AF79" t="n" s="10">
         <v>-5.6</v>
       </c>
+      <c r="AG79" t="n" s="10">
+        <v>9.305</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D80" t="n" s="10">
         <v>1636.979</v>
@@ -8350,16 +8582,19 @@
       <c r="AF80" t="n" s="10">
         <v>3147.455</v>
       </c>
+      <c r="AG80" t="n" s="10">
+        <v>3244.465</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D81" t="n" s="10">
         <v>-20.695</v>
@@ -8448,16 +8683,19 @@
       <c r="AF81" t="n" s="10">
         <v>167.363</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>220.551</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C82" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D82" t="n" s="10">
         <v>373.956</v>
@@ -8546,16 +8784,19 @@
       <c r="AF82" t="n" s="10">
         <v>1468.411</v>
       </c>
+      <c r="AG82" t="n" s="10">
+        <v>1607.34</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D83" t="n" s="10">
         <v>394.651</v>
@@ -8644,16 +8885,19 @@
       <c r="AF83" t="n" s="10">
         <v>1301.048</v>
       </c>
+      <c r="AG83" t="n" s="10">
+        <v>1386.789</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D84" t="n" s="10">
         <v>1616.284</v>
@@ -8742,75 +8986,78 @@
       <c r="AF84" t="n" s="10">
         <v>3314.818</v>
       </c>
+      <c r="AG84" t="n" s="10">
+        <v>3465.016</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="12">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:AF3"/>
-    <mergeCell ref="A5:AF5"/>
-    <mergeCell ref="A25:AF25"/>
-    <mergeCell ref="A45:AF45"/>
-    <mergeCell ref="A65:AF65"/>
-    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="A5:AG5"/>
+    <mergeCell ref="A25:AG25"/>
+    <mergeCell ref="A45:AG45"/>
+    <mergeCell ref="A65:AG65"/>
+    <mergeCell ref="A1:AG1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:37:59&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:37:58&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>